--- a/sheets/student-list.xlsx
+++ b/sheets/student-list.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taranakajima/Documents/BCIT-local/html-css/ssd-website-project-priyanka/SSD_website/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E51379-A13E-8441-B6DD-4A095661161D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D81A2F-44EB-9F4B-92BD-E9067D7D1C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F4597E5E-4723-3B44-8392-E5EB0D7DA5A0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" xr2:uid="{F4597E5E-4723-3B44-8392-E5EB0D7DA5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$21</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>ebourne1@learn.bcit.ca</t>
   </si>
   <si>
-    <t>atiltman@learn.bcit.ca</t>
-  </si>
-  <si>
     <t>cmclean48@learn.bcit.ca</t>
   </si>
   <si>
@@ -109,12 +109,6 @@
   </si>
   <si>
     <t>ljohnson165@learn.bcit.ca</t>
-  </si>
-  <si>
-    <t>Adrienne</t>
-  </si>
-  <si>
-    <t>Tiltman</t>
   </si>
   <si>
     <t>Crystal</t>
@@ -583,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E78E44D-6411-DD49-80D1-80F54042DCAC}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,76 +590,76 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -673,170 +667,164 @@
     </row>
     <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>62</v>
+      <c r="B19" t="s">
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C21" xr:uid="{35B707B3-11BC-A444-85C0-15758E2FECC6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+      <sortCondition ref="B1:B21"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>